--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1741.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1741.xlsx
@@ -351,10 +351,10 @@
         <v>0.9401432562004378</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.812258128869027</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1741.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1741.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9401432562004378</v>
+        <v>1.010643243789673</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.01332700252533</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.812258128869027</v>
+        <v>1.608077168464661</v>
       </c>
       <c r="E1">
-        <v>1.309581050798157</v>
+        <v>0.9706447124481201</v>
       </c>
     </row>
   </sheetData>
